--- a/Concept/GameLab 1, Jaar 2.Planning.xlsx
+++ b/Concept/GameLab 1, Jaar 2.Planning.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="561">
   <si>
     <t>Arne</t>
   </si>
@@ -795,15 +796,6 @@
     <t>5R_CHAR_OLDMAN</t>
   </si>
   <si>
-    <t>Old Man Wife</t>
-  </si>
-  <si>
-    <t>4U_CHAR_OLDMANWIFE</t>
-  </si>
-  <si>
-    <t>5R_CHAR_OLDMANWIFE</t>
-  </si>
-  <si>
     <t>WATER</t>
   </si>
   <si>
@@ -1654,13 +1646,76 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>WEEK 2</t>
+  </si>
+  <si>
+    <t>WEEK 38</t>
+  </si>
+  <si>
+    <t>WEEK 39</t>
+  </si>
+  <si>
+    <t>WEEK 40</t>
+  </si>
+  <si>
+    <t>WEEK 41</t>
+  </si>
+  <si>
+    <t>WEEK 42</t>
+  </si>
+  <si>
+    <t>WEEK 44</t>
+  </si>
+  <si>
+    <t>WEEK 45</t>
+  </si>
+  <si>
+    <t>WEEK 46</t>
+  </si>
+  <si>
+    <t>WEEK 47</t>
+  </si>
+  <si>
+    <t>WEEK 48</t>
+  </si>
+  <si>
+    <t>WEEK 49</t>
+  </si>
+  <si>
+    <t>WEEK 52</t>
+  </si>
+  <si>
+    <t>WEEK 50</t>
+  </si>
+  <si>
+    <t>WEEK 51</t>
+  </si>
+  <si>
+    <t>WaterShader.shader</t>
+  </si>
+  <si>
+    <t>PickUpHearts.cs</t>
+  </si>
+  <si>
+    <t>OptionsSettings.cs</t>
+  </si>
+  <si>
+    <t>WEEK 16</t>
+  </si>
+  <si>
+    <t>PlayerSpawner.cs</t>
+  </si>
+  <si>
+    <t>CutSceneController.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1682,8 +1737,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1750,6 +1812,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1763,7 +1831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1783,12 +1851,19 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2065,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ES20"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="DZ1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,7 +2175,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H1" s="1"/>
       <c r="J1" s="3">
@@ -2544,7 +2619,7 @@
         <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:149" x14ac:dyDescent="0.25">
@@ -2555,7 +2630,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -2567,12 +2642,12 @@
         <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B4" s="2">
         <v>0.61458333333333337</v>
@@ -2590,7 +2665,7 @@
         <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:149" x14ac:dyDescent="0.25">
@@ -2601,7 +2676,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -2613,7 +2688,7 @@
         <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:149" x14ac:dyDescent="0.25">
@@ -2644,7 +2719,7 @@
         <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:149" x14ac:dyDescent="0.25">
@@ -2667,7 +2742,7 @@
         <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:149" x14ac:dyDescent="0.25">
@@ -2678,7 +2753,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -2690,7 +2765,7 @@
         <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:149" x14ac:dyDescent="0.25">
@@ -2713,7 +2788,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J11" s="3">
         <v>42618</v>
@@ -3156,7 +3231,7 @@
         <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>11</v>
@@ -3179,6 +3254,7 @@
       <c r="P12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="Q12" s="1"/>
       <c r="V12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3186,7 +3262,7 @@
         <v>11</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>11</v>
@@ -3350,7 +3426,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -3362,7 +3438,7 @@
         <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>12</v>
@@ -3376,7 +3452,7 @@
     </row>
     <row r="14" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B14" s="2">
         <v>0.61458333333333337</v>
@@ -3394,52 +3470,52 @@
         <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="X14" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>481</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>482</v>
+      </c>
+      <c r="AS14" t="s">
         <v>483</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AZ14" t="s">
         <v>484</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="BN14" t="s">
         <v>485</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="BU14" t="s">
         <v>486</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="CB14" t="s">
         <v>487</v>
       </c>
-      <c r="BN14" t="s">
+      <c r="CI14" t="s">
         <v>488</v>
       </c>
-      <c r="BU14" t="s">
+      <c r="CP14" t="s">
         <v>489</v>
       </c>
-      <c r="CB14" t="s">
+      <c r="CW14" t="s">
         <v>490</v>
       </c>
-      <c r="CI14" t="s">
+      <c r="DD14" t="s">
         <v>491</v>
       </c>
-      <c r="CP14" t="s">
+      <c r="DK14" t="s">
         <v>492</v>
       </c>
-      <c r="CW14" t="s">
+      <c r="EF14" t="s">
         <v>493</v>
       </c>
-      <c r="DD14" t="s">
+      <c r="EM14" t="s">
         <v>494</v>
-      </c>
-      <c r="DK14" t="s">
-        <v>495</v>
-      </c>
-      <c r="EF14" t="s">
-        <v>496</v>
-      </c>
-      <c r="EM14" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:149" x14ac:dyDescent="0.25">
@@ -3450,7 +3526,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -3462,7 +3538,7 @@
         <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:149" x14ac:dyDescent="0.25">
@@ -3493,7 +3569,7 @@
         <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3516,7 +3592,7 @@
         <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3527,7 +3603,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -3539,7 +3615,7 @@
         <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -3550,10 +3626,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J354"/>
+  <dimension ref="A1:J353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D180" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H196" sqref="H196"/>
+    <sheetView topLeftCell="C105" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3582,16 +3658,16 @@
         <v>91</v>
       </c>
       <c r="G1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I1" t="s">
         <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3618,7 +3694,7 @@
         <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -3634,10 +3710,10 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
@@ -3656,10 +3732,13 @@
         <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3672,7 +3751,7 @@
         <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
@@ -3691,7 +3770,7 @@
         <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -3707,10 +3786,10 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G9" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H9" t="s">
         <v>5</v>
@@ -3729,7 +3808,7 @@
         <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J10" t="s">
         <v>3</v>
@@ -3745,10 +3824,13 @@
         <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H11" t="s">
         <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3761,7 +3843,7 @@
         <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H12" t="s">
         <v>5</v>
@@ -3780,7 +3862,7 @@
         <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H13" t="s">
         <v>7</v>
@@ -3799,7 +3881,7 @@
         <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H14" t="s">
         <v>6</v>
@@ -3818,10 +3900,13 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3834,10 +3919,13 @@
         <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
+      </c>
+      <c r="J16" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3850,10 +3938,13 @@
         <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H17" t="s">
         <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3866,10 +3957,13 @@
         <v>113</v>
       </c>
       <c r="G18" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H18" t="s">
         <v>6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3882,7 +3976,7 @@
         <v>119</v>
       </c>
       <c r="G19" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H19" t="s">
         <v>6</v>
@@ -3901,7 +3995,7 @@
         <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H20" t="s">
         <v>6</v>
@@ -3920,10 +4014,13 @@
         <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H21" t="s">
         <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -3936,7 +4033,7 @@
         <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H22" t="s">
         <v>6</v>
@@ -3955,7 +4052,7 @@
         <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H23" t="s">
         <v>6</v>
@@ -3971,10 +4068,10 @@
         <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G24" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H24" t="s">
         <v>7</v>
@@ -3993,7 +4090,7 @@
         <v>142</v>
       </c>
       <c r="G25" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H25" t="s">
         <v>7</v>
@@ -4012,7 +4109,7 @@
         <v>149</v>
       </c>
       <c r="G26" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H26" t="s">
         <v>5</v>
@@ -4031,7 +4128,7 @@
         <v>153</v>
       </c>
       <c r="G27" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H27" t="s">
         <v>7</v>
@@ -4050,7 +4147,7 @@
         <v>155</v>
       </c>
       <c r="G28" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H28" t="s">
         <v>7</v>
@@ -4063,16 +4160,16 @@
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D29" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E29" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G29" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H29" t="s">
         <v>7</v>
@@ -4091,7 +4188,7 @@
         <v>158</v>
       </c>
       <c r="G30" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H30" t="s">
         <v>6</v>
@@ -4110,10 +4207,13 @@
         <v>159</v>
       </c>
       <c r="G31" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H31" t="s">
         <v>6</v>
+      </c>
+      <c r="J31" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -4126,7 +4226,7 @@
         <v>163</v>
       </c>
       <c r="G32" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H32" t="s">
         <v>7</v>
@@ -4145,7 +4245,7 @@
         <v>167</v>
       </c>
       <c r="G33" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H33" t="s">
         <v>5</v>
@@ -4164,7 +4264,7 @@
         <v>171</v>
       </c>
       <c r="G34" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H34" t="s">
         <v>5</v>
@@ -4183,7 +4283,7 @@
         <v>175</v>
       </c>
       <c r="G35" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -4196,7 +4296,7 @@
         <v>179</v>
       </c>
       <c r="G36" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H36" t="s">
         <v>5</v>
@@ -4215,7 +4315,7 @@
         <v>183</v>
       </c>
       <c r="G37" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H37" t="s">
         <v>6</v>
@@ -4234,7 +4334,7 @@
         <v>189</v>
       </c>
       <c r="G38" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H38" t="s">
         <v>7</v>
@@ -4253,7 +4353,7 @@
         <v>190</v>
       </c>
       <c r="G39" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H39" t="s">
         <v>7</v>
@@ -4272,10 +4372,13 @@
         <v>191</v>
       </c>
       <c r="G40" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H40" t="s">
         <v>7</v>
+      </c>
+      <c r="J40" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -4288,7 +4391,7 @@
         <v>199</v>
       </c>
       <c r="G41" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H41" t="s">
         <v>6</v>
@@ -4307,7 +4410,7 @@
         <v>203</v>
       </c>
       <c r="G42" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H42" t="s">
         <v>6</v>
@@ -4326,10 +4429,13 @@
         <v>206</v>
       </c>
       <c r="G43" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H43" t="s">
         <v>6</v>
+      </c>
+      <c r="J43" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -4342,7 +4448,7 @@
         <v>217</v>
       </c>
       <c r="G44" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H44" t="s">
         <v>7</v>
@@ -4361,26 +4467,29 @@
         <v>218</v>
       </c>
       <c r="G45" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H45" t="s">
         <v>7</v>
+      </c>
+      <c r="J45" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D46" t="s">
         <v>220</v>
       </c>
       <c r="G46" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H46" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J46" t="s">
         <v>3</v>
@@ -4396,7 +4505,7 @@
         <v>226</v>
       </c>
       <c r="G47" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J47" t="s">
         <v>3</v>
@@ -4412,7 +4521,7 @@
         <v>227</v>
       </c>
       <c r="G48" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J48" t="s">
         <v>3</v>
@@ -4428,7 +4537,10 @@
         <v>228</v>
       </c>
       <c r="G49" t="s">
-        <v>505</v>
+        <v>502</v>
+      </c>
+      <c r="J49" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -4441,7 +4553,7 @@
         <v>230</v>
       </c>
       <c r="G50" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H50" t="s">
         <v>6</v>
@@ -4460,7 +4572,7 @@
         <v>234</v>
       </c>
       <c r="G51" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H51" t="s">
         <v>6</v>
@@ -4479,7 +4591,7 @@
         <v>238</v>
       </c>
       <c r="G52" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H52" t="s">
         <v>7</v>
@@ -4498,23 +4610,26 @@
         <v>245</v>
       </c>
       <c r="G53" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H53" t="s">
         <v>7</v>
+      </c>
+      <c r="J53" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D54" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G54" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H54" t="s">
         <v>7</v>
@@ -4533,7 +4648,7 @@
         <v>247</v>
       </c>
       <c r="G55" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H55" t="s">
         <v>7</v>
@@ -4552,7 +4667,7 @@
         <v>252</v>
       </c>
       <c r="G56" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H56" t="s">
         <v>7</v>
@@ -4565,13 +4680,13 @@
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D57" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G57" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H57" t="s">
         <v>5</v>
@@ -4584,13 +4699,13 @@
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" t="s">
+        <v>262</v>
+      </c>
+      <c r="D58" t="s">
         <v>265</v>
       </c>
-      <c r="D58" t="s">
-        <v>268</v>
-      </c>
       <c r="G58" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H58" t="s">
         <v>5</v>
@@ -4603,16 +4718,16 @@
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D59" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G59" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H59" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J59" t="s">
         <v>3</v>
@@ -4622,32 +4737,35 @@
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D60" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G60" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H60" t="s">
-        <v>541</v>
+        <v>538</v>
+      </c>
+      <c r="J60" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D61" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G61" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H61" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J61" t="s">
         <v>3</v>
@@ -4657,32 +4775,35 @@
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D62" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G62" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H62" t="s">
         <v>7</v>
+      </c>
+      <c r="J62" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D63" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G63" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H63" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J63" t="s">
         <v>3</v>
@@ -4692,32 +4813,35 @@
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D64" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G64" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H64" t="s">
-        <v>541</v>
+        <v>538</v>
+      </c>
+      <c r="J64" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D65" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G65" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H65" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J65" t="s">
         <v>3</v>
@@ -4727,16 +4851,16 @@
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D66" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G66" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H66" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J66" t="s">
         <v>3</v>
@@ -4746,16 +4870,16 @@
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D67" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G67" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H67" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J67" t="s">
         <v>3</v>
@@ -4765,13 +4889,13 @@
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D68" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G68" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H68" t="s">
         <v>6</v>
@@ -4784,16 +4908,16 @@
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D69" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G69" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H69" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J69" t="s">
         <v>3</v>
@@ -4802,19 +4926,19 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C70" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D70" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G70" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H70" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J70" t="s">
         <v>3</v>
@@ -4824,13 +4948,13 @@
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D71" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G71" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H71" t="s">
         <v>5</v>
@@ -4843,13 +4967,13 @@
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D72" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G72" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H72" t="s">
         <v>5</v>
@@ -4862,16 +4986,16 @@
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D73" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E73" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G73" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H73" t="s">
         <v>7</v>
@@ -4884,13 +5008,13 @@
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D74" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G74" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H74" t="s">
         <v>6</v>
@@ -4903,32 +5027,35 @@
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D75" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G75" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H75" t="s">
-        <v>541</v>
+        <v>538</v>
+      </c>
+      <c r="J75" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D76" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G76" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H76" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J76" t="s">
         <v>3</v>
@@ -4938,32 +5065,35 @@
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D77" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G77" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H77" t="s">
-        <v>541</v>
+        <v>538</v>
+      </c>
+      <c r="J77" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D78" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G78" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H78" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J78" t="s">
         <v>3</v>
@@ -4973,16 +5103,16 @@
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D79" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G79" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H79" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J79" t="s">
         <v>3</v>
@@ -4992,16 +5122,16 @@
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D80" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G80" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H80" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J80" t="s">
         <v>3</v>
@@ -5009,20 +5139,20 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B81" s="14"/>
       <c r="C81" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D81" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G81" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H81" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J81" t="s">
         <v>3</v>
@@ -5032,13 +5162,13 @@
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D82" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G82" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H82" t="s">
         <v>5</v>
@@ -5051,32 +5181,38 @@
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" t="s">
+        <v>496</v>
+      </c>
+      <c r="D83" t="s">
         <v>499</v>
       </c>
-      <c r="D83" t="s">
+      <c r="G83" t="s">
         <v>502</v>
       </c>
-      <c r="G83" t="s">
-        <v>505</v>
-      </c>
       <c r="H83" t="s">
-        <v>541</v>
+        <v>538</v>
+      </c>
+      <c r="J83" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D84" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G84" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H84" t="s">
-        <v>541</v>
+        <v>538</v>
+      </c>
+      <c r="J84" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -5089,10 +5225,13 @@
         <v>153</v>
       </c>
       <c r="G85" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H85" t="s">
         <v>7</v>
+      </c>
+      <c r="J85" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -5105,10 +5244,13 @@
         <v>155</v>
       </c>
       <c r="G86" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H86" t="s">
         <v>7</v>
+      </c>
+      <c r="J86" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -5139,7 +5281,7 @@
         <v>65</v>
       </c>
       <c r="G90" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H90" t="s">
         <v>5</v>
@@ -5158,7 +5300,7 @@
         <v>66</v>
       </c>
       <c r="G91" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H91" t="s">
         <v>5</v>
@@ -5177,7 +5319,7 @@
         <v>67</v>
       </c>
       <c r="G92" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H92" t="s">
         <v>5</v>
@@ -5193,7 +5335,7 @@
         <v>77</v>
       </c>
       <c r="G93" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H93" t="s">
         <v>7</v>
@@ -5209,7 +5351,7 @@
         <v>87</v>
       </c>
       <c r="G94" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H94" t="s">
         <v>7</v>
@@ -5228,7 +5370,7 @@
         <v>98</v>
       </c>
       <c r="G95" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H95" t="s">
         <v>6</v>
@@ -5244,7 +5386,7 @@
         <v>102</v>
       </c>
       <c r="G96" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H96" t="s">
         <v>6</v>
@@ -5260,7 +5402,7 @@
         <v>106</v>
       </c>
       <c r="G97" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H97" t="s">
         <v>6</v>
@@ -5276,7 +5418,7 @@
         <v>111</v>
       </c>
       <c r="G98" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H98" t="s">
         <v>6</v>
@@ -5292,7 +5434,7 @@
         <v>115</v>
       </c>
       <c r="G99" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H99" t="s">
         <v>6</v>
@@ -5311,7 +5453,7 @@
         <v>121</v>
       </c>
       <c r="G100" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H100" t="s">
         <v>6</v>
@@ -5330,7 +5472,7 @@
         <v>125</v>
       </c>
       <c r="G101" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H101" t="s">
         <v>6</v>
@@ -5346,7 +5488,7 @@
         <v>143</v>
       </c>
       <c r="G102" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H102" t="s">
         <v>7</v>
@@ -5365,7 +5507,7 @@
         <v>164</v>
       </c>
       <c r="G103" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H103" t="s">
         <v>7</v>
@@ -5384,7 +5526,7 @@
         <v>168</v>
       </c>
       <c r="G104" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H104" t="s">
         <v>5</v>
@@ -5403,7 +5545,7 @@
         <v>172</v>
       </c>
       <c r="G105" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H105" t="s">
         <v>5</v>
@@ -5432,10 +5574,10 @@
         <v>60</v>
       </c>
       <c r="D108" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G108" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H108" t="s">
         <v>5</v>
@@ -5454,7 +5596,7 @@
         <v>54</v>
       </c>
       <c r="G109" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H109" t="s">
         <v>5</v>
@@ -5473,10 +5615,10 @@
         <v>72</v>
       </c>
       <c r="G110" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H110" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="J110" t="s">
         <v>3</v>
@@ -5489,10 +5631,10 @@
         <v>59</v>
       </c>
       <c r="D111" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G111" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H111" t="s">
         <v>5</v>
@@ -5511,7 +5653,7 @@
         <v>81</v>
       </c>
       <c r="G112" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H112" t="s">
         <v>5</v>
@@ -5530,7 +5672,7 @@
         <v>96</v>
       </c>
       <c r="G113" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H113" t="s">
         <v>6</v>
@@ -5549,7 +5691,7 @@
         <v>146</v>
       </c>
       <c r="G114" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H114" t="s">
         <v>5</v>
@@ -5568,7 +5710,7 @@
         <v>150</v>
       </c>
       <c r="G115" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H115" t="s">
         <v>5</v>
@@ -5587,7 +5729,7 @@
         <v>180</v>
       </c>
       <c r="G116" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H116" t="s">
         <v>5</v>
@@ -5606,7 +5748,7 @@
         <v>192</v>
       </c>
       <c r="G117" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H117" t="s">
         <v>7</v>
@@ -5625,7 +5767,7 @@
         <v>193</v>
       </c>
       <c r="G118" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H118" t="s">
         <v>7</v>
@@ -5641,7 +5783,7 @@
         <v>194</v>
       </c>
       <c r="G119" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H119" t="s">
         <v>7</v>
@@ -5657,7 +5799,7 @@
         <v>201</v>
       </c>
       <c r="G120" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H120" t="s">
         <v>6</v>
@@ -5676,7 +5818,7 @@
         <v>207</v>
       </c>
       <c r="G121" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H121" t="s">
         <v>6</v>
@@ -5695,7 +5837,7 @@
         <v>208</v>
       </c>
       <c r="G122" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H122" t="s">
         <v>6</v>
@@ -5711,10 +5853,10 @@
         <v>215</v>
       </c>
       <c r="E123" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G123" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H123" t="s">
         <v>7</v>
@@ -5733,10 +5875,10 @@
         <v>216</v>
       </c>
       <c r="E124" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G124" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H124" t="s">
         <v>7</v>
@@ -5752,10 +5894,10 @@
         <v>221</v>
       </c>
       <c r="G125" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H125" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J125" t="s">
         <v>3</v>
@@ -5771,7 +5913,7 @@
         <v>231</v>
       </c>
       <c r="G126" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H126" t="s">
         <v>6</v>
@@ -5790,7 +5932,7 @@
         <v>235</v>
       </c>
       <c r="G127" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H127" t="s">
         <v>6</v>
@@ -5809,7 +5951,7 @@
         <v>240</v>
       </c>
       <c r="G128" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H128" t="s">
         <v>7</v>
@@ -5828,7 +5970,7 @@
         <v>244</v>
       </c>
       <c r="G129" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H129" t="s">
         <v>7</v>
@@ -5838,13 +5980,13 @@
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D130" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G130" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H130" t="s">
         <v>7</v>
@@ -5857,16 +5999,16 @@
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G131" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H131" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J131" t="s">
         <v>3</v>
@@ -5876,13 +6018,13 @@
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D132" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G132" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H132" t="s">
         <v>5</v>
@@ -5895,13 +6037,13 @@
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D133" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G133" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H133" t="s">
         <v>5</v>
@@ -5914,13 +6056,13 @@
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D134" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G134" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H134" t="s">
         <v>7</v>
@@ -5930,13 +6072,13 @@
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D135" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G135" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H135" t="s">
         <v>6</v>
@@ -5949,16 +6091,16 @@
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D136" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E136" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G136" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H136" t="s">
         <v>7</v>
@@ -5968,13 +6110,13 @@
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D137" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G137" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H137" t="s">
         <v>6</v>
@@ -6003,10 +6145,10 @@
         <v>154</v>
       </c>
       <c r="D140" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G140" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H140" t="s">
         <v>7</v>
@@ -6016,16 +6158,16 @@
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" t="s">
+        <v>396</v>
+      </c>
+      <c r="D141" t="s">
         <v>399</v>
       </c>
-      <c r="D141" t="s">
-        <v>402</v>
-      </c>
       <c r="E141" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G141" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H141" t="s">
         <v>7</v>
@@ -6044,7 +6186,7 @@
         <v>160</v>
       </c>
       <c r="G142" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H142" t="s">
         <v>6</v>
@@ -6063,10 +6205,13 @@
         <v>161</v>
       </c>
       <c r="G143" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H143" t="s">
         <v>6</v>
+      </c>
+      <c r="J143" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -6079,10 +6224,10 @@
         <v>176</v>
       </c>
       <c r="G144" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H144" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -6095,7 +6240,7 @@
         <v>184</v>
       </c>
       <c r="G145" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H145" t="s">
         <v>6</v>
@@ -6114,7 +6259,7 @@
         <v>249</v>
       </c>
       <c r="G146" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H146" t="s">
         <v>7</v>
@@ -6127,13 +6272,13 @@
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D147" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G147" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H147" t="s">
         <v>5</v>
@@ -6146,13 +6291,13 @@
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D148" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G148" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H148" t="s">
         <v>5</v>
@@ -6184,7 +6329,7 @@
         <v>133</v>
       </c>
       <c r="G151" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H151" t="s">
         <v>6</v>
@@ -6200,10 +6345,10 @@
         <v>129</v>
       </c>
       <c r="D152" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G152" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H152" t="s">
         <v>6</v>
@@ -6219,10 +6364,10 @@
         <v>130</v>
       </c>
       <c r="D153" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G153" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H153" t="s">
         <v>7</v>
@@ -6241,7 +6386,7 @@
         <v>253</v>
       </c>
       <c r="G154" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H154" t="s">
         <v>7</v>
@@ -6251,13 +6396,13 @@
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D155" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G155" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H155" t="s">
         <v>5</v>
@@ -6297,10 +6442,13 @@
         <v>68</v>
       </c>
       <c r="G159" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H159" t="s">
         <v>5</v>
+      </c>
+      <c r="J159" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -6313,10 +6461,13 @@
         <v>78</v>
       </c>
       <c r="G160" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H160" t="s">
         <v>7</v>
+      </c>
+      <c r="J160" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -6329,7 +6480,7 @@
         <v>93</v>
       </c>
       <c r="G161" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H161" t="s">
         <v>7</v>
@@ -6348,10 +6499,13 @@
         <v>69</v>
       </c>
       <c r="G162" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H162" t="s">
         <v>5</v>
+      </c>
+      <c r="J162" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -6364,10 +6518,13 @@
         <v>99</v>
       </c>
       <c r="G163" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H163" t="s">
         <v>6</v>
+      </c>
+      <c r="J163" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -6380,10 +6537,13 @@
         <v>103</v>
       </c>
       <c r="G164" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H164" t="s">
         <v>6</v>
+      </c>
+      <c r="J164" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -6396,10 +6556,13 @@
         <v>107</v>
       </c>
       <c r="G165" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H165" t="s">
         <v>6</v>
+      </c>
+      <c r="J165" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -6412,10 +6575,13 @@
         <v>112</v>
       </c>
       <c r="G166" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H166" t="s">
         <v>6</v>
+      </c>
+      <c r="J166" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -6428,10 +6594,13 @@
         <v>117</v>
       </c>
       <c r="G167" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H167" t="s">
         <v>6</v>
+      </c>
+      <c r="J167" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -6444,10 +6613,13 @@
         <v>122</v>
       </c>
       <c r="G168" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H168" t="s">
         <v>6</v>
+      </c>
+      <c r="J168" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -6460,10 +6632,13 @@
         <v>126</v>
       </c>
       <c r="G169" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H169" t="s">
         <v>6</v>
+      </c>
+      <c r="J169" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -6476,10 +6651,13 @@
         <v>144</v>
       </c>
       <c r="G170" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H170" t="s">
         <v>7</v>
+      </c>
+      <c r="J170" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -6492,10 +6670,13 @@
         <v>165</v>
       </c>
       <c r="G171" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H171" t="s">
         <v>7</v>
+      </c>
+      <c r="J171" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -6508,10 +6689,13 @@
         <v>169</v>
       </c>
       <c r="G172" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H172" t="s">
         <v>5</v>
+      </c>
+      <c r="J172" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -6524,10 +6708,13 @@
         <v>173</v>
       </c>
       <c r="G173" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H173" t="s">
         <v>5</v>
+      </c>
+      <c r="J173" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -6550,10 +6737,10 @@
         <v>60</v>
       </c>
       <c r="D176" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G176" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H176" t="s">
         <v>5</v>
@@ -6572,7 +6759,7 @@
         <v>70</v>
       </c>
       <c r="G177" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H177" t="s">
         <v>5</v>
@@ -6588,10 +6775,10 @@
         <v>59</v>
       </c>
       <c r="D178" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G178" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H178" t="s">
         <v>5</v>
@@ -6610,10 +6797,10 @@
         <v>74</v>
       </c>
       <c r="G179" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H179" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="J179" t="s">
         <v>3</v>
@@ -6629,7 +6816,7 @@
         <v>82</v>
       </c>
       <c r="G180" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H180" t="s">
         <v>5</v>
@@ -6645,10 +6832,10 @@
         <v>145</v>
       </c>
       <c r="D181" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G181" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H181" t="s">
         <v>5</v>
@@ -6667,7 +6854,7 @@
         <v>147</v>
       </c>
       <c r="G182" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H182" t="s">
         <v>6</v>
@@ -6686,7 +6873,7 @@
         <v>151</v>
       </c>
       <c r="G183" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H183" t="s">
         <v>5</v>
@@ -6705,7 +6892,7 @@
         <v>181</v>
       </c>
       <c r="G184" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H184" t="s">
         <v>5</v>
@@ -6724,7 +6911,7 @@
         <v>195</v>
       </c>
       <c r="G185" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H185" t="s">
         <v>7</v>
@@ -6743,10 +6930,13 @@
         <v>196</v>
       </c>
       <c r="G186" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H186" t="s">
         <v>7</v>
+      </c>
+      <c r="J186" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6759,10 +6949,13 @@
         <v>197</v>
       </c>
       <c r="G187" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H187" t="s">
         <v>7</v>
+      </c>
+      <c r="J187" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6775,7 +6968,7 @@
         <v>202</v>
       </c>
       <c r="G188" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H188" t="s">
         <v>6</v>
@@ -6794,7 +6987,7 @@
         <v>210</v>
       </c>
       <c r="G189" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H189" t="s">
         <v>6</v>
@@ -6813,10 +7006,13 @@
         <v>209</v>
       </c>
       <c r="G190" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H190" t="s">
         <v>6</v>
+      </c>
+      <c r="J190" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6829,7 +7025,7 @@
         <v>213</v>
       </c>
       <c r="G191" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H191" t="s">
         <v>7</v>
@@ -6848,10 +7044,13 @@
         <v>214</v>
       </c>
       <c r="G192" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H192" t="s">
         <v>7</v>
+      </c>
+      <c r="J192" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6864,10 +7063,10 @@
         <v>222</v>
       </c>
       <c r="G193" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H193" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J193" t="s">
         <v>3</v>
@@ -6883,7 +7082,7 @@
         <v>232</v>
       </c>
       <c r="G194" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H194" t="s">
         <v>6</v>
@@ -6902,7 +7101,7 @@
         <v>236</v>
       </c>
       <c r="G195" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H195" t="s">
         <v>6</v>
@@ -6921,10 +7120,10 @@
         <v>241</v>
       </c>
       <c r="G196" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H196" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J196" t="s">
         <v>3</v>
@@ -6940,20 +7139,23 @@
         <v>243</v>
       </c>
       <c r="G197" t="s">
-        <v>505</v>
+        <v>502</v>
+      </c>
+      <c r="J197" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D198" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G198" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J198" t="s">
         <v>3</v>
@@ -6963,13 +7165,13 @@
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" t="s">
+        <v>258</v>
+      </c>
+      <c r="D199" t="s">
         <v>261</v>
       </c>
-      <c r="D199" t="s">
-        <v>264</v>
-      </c>
       <c r="G199" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J199" t="s">
         <v>3</v>
@@ -6979,13 +7181,13 @@
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D200" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G200" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J200" t="s">
         <v>3</v>
@@ -6995,26 +7197,26 @@
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" t="s">
+        <v>272</v>
+      </c>
+      <c r="D201" t="s">
         <v>275</v>
       </c>
-      <c r="D201" t="s">
-        <v>278</v>
-      </c>
       <c r="G201" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="14"/>
       <c r="B202" s="14"/>
       <c r="C202" t="s">
+        <v>286</v>
+      </c>
+      <c r="D202" t="s">
         <v>289</v>
       </c>
-      <c r="D202" t="s">
-        <v>292</v>
-      </c>
       <c r="G202" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J202" t="s">
         <v>3</v>
@@ -7024,29 +7226,29 @@
       <c r="A203" s="14"/>
       <c r="B203" s="14"/>
       <c r="C203" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D203" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E203" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G203" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" t="s">
+        <v>315</v>
+      </c>
+      <c r="D204" t="s">
         <v>318</v>
       </c>
-      <c r="D204" t="s">
-        <v>321</v>
-      </c>
       <c r="G204" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J204" t="s">
         <v>3</v>
@@ -7069,29 +7271,29 @@
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D207" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G207" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
       <c r="C208" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D208" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E208" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G208" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J208" t="s">
         <v>3</v>
@@ -7107,7 +7309,7 @@
         <v>177</v>
       </c>
       <c r="G209" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7120,7 +7322,7 @@
         <v>185</v>
       </c>
       <c r="G210" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7133,7 +7335,7 @@
         <v>250</v>
       </c>
       <c r="G211" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J211" t="s">
         <v>3</v>
@@ -7143,26 +7345,26 @@
       <c r="A212" s="14"/>
       <c r="B212" s="14"/>
       <c r="C212" t="s">
+        <v>296</v>
+      </c>
+      <c r="D212" t="s">
         <v>299</v>
       </c>
-      <c r="D212" t="s">
-        <v>302</v>
-      </c>
       <c r="G212" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="14"/>
       <c r="B213" s="14"/>
       <c r="C213" t="s">
+        <v>300</v>
+      </c>
+      <c r="D213" t="s">
         <v>303</v>
       </c>
-      <c r="D213" t="s">
-        <v>306</v>
-      </c>
       <c r="G213" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J213" t="s">
         <v>3</v>
@@ -7184,7 +7386,7 @@
         <v>134</v>
       </c>
       <c r="G215" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H215" t="s">
         <v>6</v>
@@ -7203,7 +7405,7 @@
         <v>135</v>
       </c>
       <c r="G216" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H216" t="s">
         <v>6</v>
@@ -7219,10 +7421,10 @@
         <v>130</v>
       </c>
       <c r="D217" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G217" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H217" t="s">
         <v>7</v>
@@ -7241,76 +7443,82 @@
         <v>254</v>
       </c>
       <c r="G218" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="14"/>
       <c r="B219" s="14"/>
       <c r="C219" t="s">
-        <v>256</v>
+        <v>386</v>
       </c>
       <c r="D219" t="s">
-        <v>257</v>
+        <v>389</v>
       </c>
       <c r="G219" t="s">
-        <v>505</v>
+        <v>495</v>
+      </c>
+      <c r="H219" t="s">
+        <v>5</v>
+      </c>
+      <c r="J219" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="14"/>
       <c r="B220" s="14"/>
-      <c r="C220" t="s">
-        <v>389</v>
-      </c>
-      <c r="D220" t="s">
-        <v>392</v>
-      </c>
-      <c r="G220" t="s">
-        <v>498</v>
-      </c>
-      <c r="H220" t="s">
-        <v>5</v>
-      </c>
-      <c r="J220" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="14"/>
-      <c r="B221" s="14"/>
-    </row>
-    <row r="222" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="9" t="s">
+    </row>
+    <row r="221" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B221" s="9" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="14"/>
+      <c r="B222" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C222" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="14"/>
-      <c r="B223" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B223" s="14"/>
       <c r="C223" t="s">
-        <v>58</v>
+        <v>129</v>
+      </c>
+      <c r="D223" t="s">
+        <v>136</v>
+      </c>
+      <c r="G223" t="s">
+        <v>495</v>
+      </c>
+      <c r="H223" t="s">
+        <v>6</v>
+      </c>
+      <c r="J223" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="14"/>
       <c r="B224" s="14"/>
       <c r="C224" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D224" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G224" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H224" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J224" t="s">
         <v>3</v>
@@ -7320,16 +7528,16 @@
       <c r="A225" s="14"/>
       <c r="B225" s="14"/>
       <c r="C225" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D225" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G225" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J225" t="s">
         <v>3</v>
@@ -7339,104 +7547,101 @@
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="C226" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="D226" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="G226" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H226" t="s">
-        <v>6</v>
-      </c>
-      <c r="J226" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="C227" t="s">
-        <v>251</v>
+        <v>386</v>
       </c>
       <c r="D227" t="s">
-        <v>255</v>
+        <v>390</v>
       </c>
       <c r="G227" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="H227" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="J227" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
-      <c r="C228" t="s">
-        <v>256</v>
-      </c>
-      <c r="D228" t="s">
-        <v>258</v>
-      </c>
-      <c r="G228" t="s">
-        <v>505</v>
-      </c>
-      <c r="H228" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229" s="14"/>
-      <c r="B229" s="14"/>
-      <c r="C229" t="s">
-        <v>389</v>
-      </c>
-      <c r="D229" t="s">
-        <v>393</v>
-      </c>
-      <c r="G229" t="s">
-        <v>498</v>
-      </c>
-      <c r="H229" t="s">
-        <v>5</v>
-      </c>
-      <c r="J229" t="s">
-        <v>3</v>
+    </row>
+    <row r="229" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="14"/>
-      <c r="B230" s="14"/>
-    </row>
-    <row r="231" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B231" s="12" t="s">
-        <v>46</v>
+      <c r="B230" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C230" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="14"/>
+      <c r="B231" s="14"/>
+      <c r="C231" t="s">
+        <v>337</v>
+      </c>
+      <c r="D231" t="s">
+        <v>345</v>
+      </c>
+      <c r="G231" t="s">
+        <v>502</v>
+      </c>
+      <c r="H231" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="14"/>
-      <c r="B232" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B232" s="14"/>
       <c r="C232" t="s">
-        <v>139</v>
+        <v>338</v>
+      </c>
+      <c r="D232" t="s">
+        <v>346</v>
+      </c>
+      <c r="G232" t="s">
+        <v>502</v>
+      </c>
+      <c r="H232" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D233" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G233" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H233" t="s">
         <v>5</v>
@@ -7446,13 +7651,13 @@
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D234" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G234" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H234" t="s">
         <v>5</v>
@@ -7462,13 +7667,13 @@
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D235" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G235" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H235" t="s">
         <v>5</v>
@@ -7478,13 +7683,13 @@
       <c r="A236" s="14"/>
       <c r="B236" s="14"/>
       <c r="C236" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D236" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G236" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H236" t="s">
         <v>5</v>
@@ -7494,13 +7699,13 @@
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D237" t="s">
         <v>351</v>
       </c>
       <c r="G237" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H237" t="s">
         <v>5</v>
@@ -7510,13 +7715,13 @@
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D238" t="s">
         <v>352</v>
       </c>
       <c r="G238" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H238" t="s">
         <v>5</v>
@@ -7526,13 +7731,13 @@
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="D239" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="G239" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H239" t="s">
         <v>5</v>
@@ -7542,48 +7747,54 @@
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D240" t="s">
-        <v>355</v>
+        <v>356</v>
+      </c>
+      <c r="E240" t="s">
+        <v>532</v>
       </c>
       <c r="G240" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="D241" t="s">
-        <v>383</v>
+        <v>357</v>
+      </c>
+      <c r="E241" t="s">
+        <v>533</v>
       </c>
       <c r="G241" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D242" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E242" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G242" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H242" t="s">
         <v>7</v>
@@ -7593,16 +7804,16 @@
       <c r="A243" s="14"/>
       <c r="B243" s="14"/>
       <c r="C243" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D243" t="s">
         <v>360</v>
       </c>
       <c r="E243" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G243" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H243" t="s">
         <v>7</v>
@@ -7612,16 +7823,16 @@
       <c r="A244" s="14"/>
       <c r="B244" s="14"/>
       <c r="C244" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D244" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E244" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G244" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H244" t="s">
         <v>7</v>
@@ -7634,13 +7845,13 @@
         <v>362</v>
       </c>
       <c r="D245" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E245" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G245" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H245" t="s">
         <v>7</v>
@@ -7650,16 +7861,16 @@
       <c r="A246" s="14"/>
       <c r="B246" s="14"/>
       <c r="C246" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D246" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E246" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G246" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H246" t="s">
         <v>7</v>
@@ -7669,16 +7880,16 @@
       <c r="A247" s="14"/>
       <c r="B247" s="14"/>
       <c r="C247" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D247" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E247" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G247" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H247" t="s">
         <v>7</v>
@@ -7688,16 +7899,16 @@
       <c r="A248" s="14"/>
       <c r="B248" s="14"/>
       <c r="C248" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D248" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E248" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G248" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H248" t="s">
         <v>7</v>
@@ -7707,16 +7918,16 @@
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D249" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E249" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G249" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H249" t="s">
         <v>7</v>
@@ -7726,16 +7937,16 @@
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
       <c r="C250" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D250" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E250" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G250" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H250" t="s">
         <v>7</v>
@@ -7745,16 +7956,16 @@
       <c r="A251" s="14"/>
       <c r="B251" s="14"/>
       <c r="C251" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D251" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E251" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G251" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H251" t="s">
         <v>7</v>
@@ -7764,16 +7975,16 @@
       <c r="A252" s="14"/>
       <c r="B252" s="14"/>
       <c r="C252" t="s">
+        <v>375</v>
+      </c>
+      <c r="D252" t="s">
         <v>376</v>
       </c>
-      <c r="D252" t="s">
-        <v>381</v>
-      </c>
       <c r="E252" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G252" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H252" t="s">
         <v>7</v>
@@ -7782,418 +7993,397 @@
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
-      <c r="C253" t="s">
-        <v>377</v>
-      </c>
-      <c r="D253" t="s">
-        <v>380</v>
-      </c>
-      <c r="E253" t="s">
-        <v>536</v>
-      </c>
-      <c r="G253" t="s">
-        <v>505</v>
-      </c>
-      <c r="H253" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="14"/>
-      <c r="B254" s="14"/>
-      <c r="C254" t="s">
-        <v>378</v>
-      </c>
-      <c r="D254" t="s">
-        <v>379</v>
-      </c>
-      <c r="E254" t="s">
-        <v>537</v>
-      </c>
-      <c r="G254" t="s">
-        <v>505</v>
-      </c>
-      <c r="H254" t="s">
-        <v>7</v>
+    </row>
+    <row r="254" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="14"/>
-      <c r="B255" s="14"/>
-    </row>
-    <row r="256" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B256" s="10" t="s">
-        <v>36</v>
+      <c r="B255" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C255" t="s">
+        <v>435</v>
+      </c>
+      <c r="E255" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="14"/>
+      <c r="B256" s="14"/>
+      <c r="C256" t="s">
+        <v>436</v>
+      </c>
+      <c r="G256" t="s">
+        <v>495</v>
+      </c>
+      <c r="H256" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
-      <c r="B257" s="7" t="s">
-        <v>438</v>
-      </c>
+      <c r="B257" s="14"/>
       <c r="C257" t="s">
-        <v>438</v>
-      </c>
-      <c r="E257" t="s">
-        <v>476</v>
+        <v>385</v>
       </c>
       <c r="G257" t="s">
-        <v>498</v>
+        <v>495</v>
+      </c>
+      <c r="H257" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G258" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H258" t="s">
-        <v>2</v>
+        <v>434</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="G259" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H259" t="s">
-        <v>2</v>
+        <v>434</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" t="s">
-        <v>440</v>
+        <v>537</v>
       </c>
       <c r="G260" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H260" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G261" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H261" t="s">
-        <v>437</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" t="s">
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="G262" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H262" t="s">
-        <v>437</v>
+        <v>536</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G263" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H263" t="s">
-        <v>2</v>
+        <v>536</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" t="s">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="G264" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="H264" t="s">
-        <v>539</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
-      <c r="C265" t="s">
-        <v>444</v>
-      </c>
-      <c r="G265" t="s">
-        <v>498</v>
-      </c>
-      <c r="H265" t="s">
-        <v>539</v>
-      </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
-      <c r="B266" s="14"/>
+      <c r="B266" s="16" t="s">
+        <v>443</v>
+      </c>
       <c r="C266" t="s">
-        <v>387</v>
+        <v>442</v>
+      </c>
+      <c r="E266" t="s">
+        <v>474</v>
       </c>
       <c r="G266" t="s">
-        <v>498</v>
-      </c>
-      <c r="H266" t="s">
-        <v>2</v>
+        <v>495</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
+      <c r="C267" t="s">
+        <v>444</v>
+      </c>
+      <c r="G267" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="14"/>
-      <c r="B268" s="16" t="s">
-        <v>446</v>
-      </c>
+      <c r="B268" s="14"/>
       <c r="C268" t="s">
         <v>445</v>
       </c>
-      <c r="E268" t="s">
-        <v>477</v>
-      </c>
       <c r="G268" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G269" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G270" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G271" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G272" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G273" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
       <c r="C274" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G274" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
       <c r="C275" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G275" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
       <c r="C276" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G276" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="14"/>
       <c r="B277" s="14"/>
       <c r="C277" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G277" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
       <c r="C278" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G278" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="14"/>
       <c r="B279" s="14"/>
       <c r="C279" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G279" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G280" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="G281" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="G282" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
-      <c r="C283" t="s">
-        <v>474</v>
-      </c>
-      <c r="G283" t="s">
-        <v>498</v>
-      </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="14"/>
-      <c r="B284" s="14"/>
+      <c r="B284" s="7" t="s">
+        <v>510</v>
+      </c>
       <c r="C284" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="G284" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="14"/>
       <c r="B285" s="14"/>
+      <c r="C285" t="s">
+        <v>504</v>
+      </c>
+      <c r="G285" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="14"/>
-      <c r="B286" s="7" t="s">
-        <v>513</v>
-      </c>
+      <c r="B286" s="14"/>
       <c r="C286" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G286" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="14"/>
       <c r="B287" s="14"/>
       <c r="C287" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G287" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
       <c r="C288" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G288" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="14"/>
       <c r="B289" s="14"/>
       <c r="C289" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G289" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G290" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -8203,7 +8393,7 @@
         <v>511</v>
       </c>
       <c r="G291" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -8213,56 +8403,56 @@
         <v>512</v>
       </c>
       <c r="G292" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="14"/>
       <c r="B293" s="14"/>
-      <c r="C293" t="s">
-        <v>514</v>
-      </c>
-      <c r="G293" t="s">
-        <v>498</v>
-      </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="14"/>
-      <c r="B294" s="14"/>
+      <c r="B294" s="16" t="s">
+        <v>456</v>
+      </c>
       <c r="C294" t="s">
-        <v>515</v>
+        <v>457</v>
+      </c>
+      <c r="E294" t="s">
+        <v>474</v>
       </c>
       <c r="G294" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
+      <c r="C295" t="s">
+        <v>458</v>
+      </c>
+      <c r="G295" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="14"/>
-      <c r="B296" s="16" t="s">
+      <c r="B296" s="14"/>
+      <c r="C296" t="s">
         <v>459</v>
       </c>
-      <c r="C296" t="s">
-        <v>460</v>
-      </c>
-      <c r="E296" t="s">
-        <v>477</v>
-      </c>
       <c r="G296" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="14"/>
       <c r="B297" s="14"/>
       <c r="C297" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G297" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -8272,655 +8462,1194 @@
         <v>462</v>
       </c>
       <c r="G298" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="14"/>
       <c r="B299" s="14"/>
       <c r="C299" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G299" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="14"/>
       <c r="B300" s="14"/>
       <c r="C300" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G300" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="14"/>
       <c r="B301" s="14"/>
-      <c r="C301" t="s">
-        <v>466</v>
-      </c>
-      <c r="G301" t="s">
-        <v>504</v>
-      </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="14"/>
-      <c r="B302" s="14"/>
+      <c r="B302" s="16" t="s">
+        <v>466</v>
+      </c>
       <c r="C302" t="s">
         <v>467</v>
       </c>
+      <c r="E302" t="s">
+        <v>473</v>
+      </c>
       <c r="G302" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
+      <c r="C303" t="s">
+        <v>468</v>
+      </c>
+      <c r="G303" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="14"/>
-      <c r="B304" s="16" t="s">
+      <c r="B304" s="14"/>
+      <c r="C304" t="s">
         <v>469</v>
       </c>
-      <c r="C304" t="s">
-        <v>470</v>
-      </c>
-      <c r="E304" t="s">
-        <v>476</v>
-      </c>
       <c r="G304" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="14"/>
       <c r="B305" s="14"/>
       <c r="C305" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G305" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="14"/>
       <c r="B306" s="14"/>
-      <c r="C306" t="s">
-        <v>472</v>
-      </c>
-      <c r="G306" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307" s="14"/>
-      <c r="B307" s="14"/>
-      <c r="C307" t="s">
-        <v>473</v>
-      </c>
-      <c r="G307" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B307" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="14"/>
-      <c r="B308" s="14"/>
-    </row>
-    <row r="309" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B309" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B308" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C308" t="s">
+        <v>395</v>
+      </c>
+      <c r="G308" t="s">
+        <v>495</v>
+      </c>
+      <c r="H308" t="s">
+        <v>2</v>
+      </c>
+      <c r="J308" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" s="14"/>
+      <c r="B309" s="14"/>
+      <c r="C309" t="s">
+        <v>431</v>
+      </c>
+      <c r="G309" t="s">
+        <v>495</v>
+      </c>
+      <c r="H309" t="s">
+        <v>2</v>
+      </c>
+      <c r="J309" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="14"/>
-      <c r="B310" s="7" t="s">
-        <v>431</v>
+      <c r="B310" s="14" t="s">
+        <v>429</v>
       </c>
       <c r="C310" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="G310" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H310" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J310" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="14"/>
       <c r="B311" s="14"/>
       <c r="C311" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="G311" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H311" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J311" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="14"/>
-      <c r="B312" s="14" t="s">
-        <v>432</v>
-      </c>
+      <c r="B312" s="14"/>
       <c r="C312" t="s">
         <v>415</v>
       </c>
       <c r="G312" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H312" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J312" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="14"/>
       <c r="B313" s="14"/>
       <c r="C313" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="G313" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H313" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J313" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="14"/>
-      <c r="B314" s="14"/>
-      <c r="C314" t="s">
+      <c r="B314" s="14" t="s">
         <v>418</v>
       </c>
+      <c r="C314" s="4" t="s">
+        <v>420</v>
+      </c>
       <c r="G314" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H314" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J314" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
-      <c r="C315" t="s">
-        <v>428</v>
+      <c r="C315" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="G315" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H315" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J315" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="14"/>
-      <c r="B316" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="C316" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="G316" t="s">
-        <v>498</v>
-      </c>
-      <c r="H316" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B316" s="14"/>
+      <c r="C316" s="4"/>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="14"/>
-      <c r="B317" s="14"/>
+      <c r="B317" s="7" t="s">
+        <v>429</v>
+      </c>
       <c r="C317" s="4" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="G317" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H317" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J317" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="14"/>
       <c r="B318" s="14"/>
-      <c r="C318" s="4"/>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C318" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G318" t="s">
+        <v>495</v>
+      </c>
+      <c r="H318" t="s">
+        <v>2</v>
+      </c>
+      <c r="J318" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="14"/>
-      <c r="B319" s="7" t="s">
-        <v>432</v>
-      </c>
+      <c r="B319" s="14"/>
       <c r="C319" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G319" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H319" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J319" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="14"/>
       <c r="B320" s="14"/>
       <c r="C320" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G320" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H320" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J320" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="14"/>
       <c r="B321" s="14"/>
       <c r="C321" s="4" t="s">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="G321" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H321" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J321" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="14"/>
       <c r="B322" s="14"/>
       <c r="C322" s="4" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="G322" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H322" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J322" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="14"/>
       <c r="B323" s="14"/>
       <c r="C323" s="4" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="G323" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H323" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J323" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="14"/>
-      <c r="B324" s="14"/>
+      <c r="B324" s="14" t="s">
+        <v>430</v>
+      </c>
       <c r="C324" s="4" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G324" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H324" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J324" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="14"/>
       <c r="B325" s="14"/>
       <c r="C325" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G325" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H325" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J325" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="14"/>
-      <c r="B326" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G326" t="s">
-        <v>498</v>
-      </c>
-      <c r="H326" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B326" s="14"/>
+      <c r="C326" s="4"/>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="14"/>
-      <c r="B327" s="14"/>
+      <c r="B327" s="16" t="s">
+        <v>430</v>
+      </c>
       <c r="C327" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G327" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H327" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J327" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="14"/>
       <c r="B328" s="14"/>
-      <c r="C328" s="4"/>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C328" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G328" t="s">
+        <v>495</v>
+      </c>
+      <c r="H328" t="s">
+        <v>1</v>
+      </c>
+      <c r="J328" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="14"/>
-      <c r="B329" s="16" t="s">
-        <v>433</v>
-      </c>
+      <c r="B329" s="14"/>
       <c r="C329" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G329" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H329" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="14"/>
       <c r="B330" s="14"/>
       <c r="C330" s="4" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="G330" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H330" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J330" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="14"/>
-      <c r="B331" s="14"/>
-      <c r="C331" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="G331" t="s">
-        <v>498</v>
-      </c>
-      <c r="H331" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B331" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C331" s="4"/>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="14"/>
-      <c r="B332" s="14"/>
+      <c r="B332" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="C332" s="4" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="G332" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H332" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J332" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="14"/>
-      <c r="B333" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C333" s="4"/>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B333" s="14"/>
+      <c r="C333" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G333" t="s">
+        <v>495</v>
+      </c>
+      <c r="H333" t="s">
+        <v>434</v>
+      </c>
+      <c r="J333" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="14"/>
-      <c r="B334" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="B334" s="14"/>
       <c r="C334" s="4" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="G334" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H334" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J334" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="14"/>
       <c r="B335" s="14"/>
       <c r="C335" s="4" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="G335" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H335" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J335" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="14"/>
       <c r="B336" s="14"/>
       <c r="C336" s="4" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G336" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H336" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J336" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="14"/>
       <c r="B337" s="14"/>
       <c r="C337" s="4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G337" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H337" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J337" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="14"/>
       <c r="B338" s="14"/>
       <c r="C338" s="4" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G338" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H338" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J338" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="14"/>
       <c r="B339" s="14"/>
       <c r="C339" s="4" t="s">
-        <v>425</v>
+        <v>526</v>
       </c>
       <c r="G339" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H339" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J339" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="14"/>
       <c r="B340" s="14"/>
       <c r="C340" s="4" t="s">
-        <v>426</v>
+        <v>555</v>
       </c>
       <c r="G340" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H340" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="J340" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="14"/>
       <c r="B341" s="14"/>
-      <c r="C341" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C341" s="4"/>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="14"/>
-      <c r="B342" s="14"/>
-      <c r="C342" s="4"/>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B342" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G342" t="s">
+        <v>495</v>
+      </c>
+      <c r="H342" t="s">
+        <v>0</v>
+      </c>
+      <c r="J342" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="14"/>
-      <c r="B343" s="18" t="s">
-        <v>421</v>
-      </c>
+      <c r="B343" s="15"/>
       <c r="C343" s="4" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G343" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H343" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J343" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="14"/>
       <c r="B344" s="15"/>
       <c r="C344" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G344" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H344" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J344" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="14"/>
       <c r="B345" s="15"/>
       <c r="C345" s="4" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="G345" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H345" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J345" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="14"/>
       <c r="B346" s="15"/>
       <c r="C346" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G346" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H346" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A347" s="14"/>
-      <c r="B347" s="15"/>
-      <c r="C347" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="G347" t="s">
-        <v>498</v>
-      </c>
-      <c r="H347" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="11" t="s">
+      <c r="J346" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B348" s="11" t="s">
+      <c r="B347" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" s="14"/>
+      <c r="B348" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C348" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
-      <c r="B349" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B349" s="14"/>
       <c r="C349" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="D349" t="s">
+        <v>332</v>
+      </c>
+      <c r="G349" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="14"/>
       <c r="B350" s="14"/>
       <c r="C350" t="s">
+        <v>333</v>
+      </c>
+      <c r="D350" t="s">
         <v>334</v>
       </c>
-      <c r="D350" t="s">
-        <v>335</v>
-      </c>
       <c r="G350" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="14"/>
       <c r="B351" s="14"/>
-      <c r="C351" t="s">
-        <v>336</v>
-      </c>
-      <c r="D351" t="s">
-        <v>337</v>
-      </c>
-      <c r="G351" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="14"/>
-      <c r="B352" s="14"/>
+      <c r="B352" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C352" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="14"/>
-      <c r="B353" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B353" s="14"/>
       <c r="C353" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354" s="14"/>
-      <c r="B354" s="14"/>
-      <c r="C354" t="s">
-        <v>338</v>
-      </c>
-      <c r="D354" t="s">
-        <v>339</v>
-      </c>
-      <c r="G354" t="s">
-        <v>504</v>
+        <v>335</v>
+      </c>
+      <c r="D353" t="s">
+        <v>336</v>
+      </c>
+      <c r="G353" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J1" t="s">
+        <v>488</v>
+      </c>
+      <c r="K1" t="s">
+        <v>489</v>
+      </c>
+      <c r="L1" t="s">
+        <v>490</v>
+      </c>
+      <c r="M1" t="s">
+        <v>491</v>
+      </c>
+      <c r="N1" t="s">
+        <v>492</v>
+      </c>
+      <c r="O1" t="s">
+        <v>493</v>
+      </c>
+      <c r="P1" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="20" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="20" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="C24" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>